--- a/PV_ICE/baselines/SupportingMaterial/CellTechCompare/HistoricalSilverDemand-LitCompare.xlsx
+++ b/PV_ICE/baselines/SupportingMaterial/CellTechCompare/HistoricalSilverDemand-LitCompare.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\GitHub\PV_ICE\PV_ICE\baselines\SupportingMaterial\CellTechCompare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E9F49E-16F3-49CD-9A7A-01668C6792E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D25E1E-7108-4315-9644-C872A5CD02BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4D9EA17F-1F1A-4AC9-8411-3AEC98683D40}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{4D9EA17F-1F1A-4AC9-8411-3AEC98683D40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>Hallam 2022</t>
   </si>
@@ -142,6 +142,15 @@
   <si>
     <t>WSS Demand/IRENA deployment</t>
   </si>
+  <si>
+    <t>Zhang 2021 PERC</t>
+  </si>
+  <si>
+    <t>Zhang 2021 TOPCon</t>
+  </si>
+  <si>
+    <t>Zhang 2021 SHJ</t>
+  </si>
 </sst>
 </file>
 
@@ -149,8 +158,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -176,7 +185,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,6 +207,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEBAB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,20 +249,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -257,8 +274,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFDAA600"/>
+      <color rgb="FFFFDC6D"/>
       <color rgb="FFFFEBAB"/>
-      <color rgb="FFFFDC6D"/>
     </mruColors>
   </colors>
   <extLst>
@@ -822,7 +840,7 @@
             <c:numRef>
               <c:f>Sheet1!$N$4:$N$16</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>2665.4384829999999</c:v>
@@ -2115,6 +2133,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16655448909634016"/>
+          <c:y val="3.140096618357488E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2152,7 +2178,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$24</c:f>
+              <c:f>Sheet1!$K$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2175,10 +2201,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$J$25:$J$37</c:f>
+              <c:f>Sheet1!$J$36:$J$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2011</c:v>
                 </c:pt>
@@ -2217,16 +2243,40 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2031</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$25:$K$37</c:f>
+              <c:f>Sheet1!$K$36:$K$56</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>65.761562609489147</c:v>
                 </c:pt>
@@ -2281,7 +2331,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$24</c:f>
+              <c:f>Sheet1!$L$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2307,10 +2357,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$J$25:$J$37</c:f>
+              <c:f>Sheet1!$J$36:$J$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2011</c:v>
                 </c:pt>
@@ -2349,16 +2399,40 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2031</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$L$25:$L$37</c:f>
+              <c:f>Sheet1!$L$36:$L$56</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>76.708812016551903</c:v>
                 </c:pt>
@@ -2413,7 +2487,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$24</c:f>
+              <c:f>Sheet1!$M$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2436,10 +2510,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$J$25:$J$37</c:f>
+              <c:f>Sheet1!$J$36:$J$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2011</c:v>
                 </c:pt>
@@ -2478,16 +2552,40 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2031</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$M$25:$M$37</c:f>
+              <c:f>Sheet1!$M$36:$M$56</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>77.419150532607546</c:v>
                 </c:pt>
@@ -2542,7 +2640,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$24</c:f>
+              <c:f>Sheet1!$N$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2567,10 +2665,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$J$25:$J$37</c:f>
+              <c:f>Sheet1!$J$36:$J$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2011</c:v>
                 </c:pt>
@@ -2609,16 +2707,40 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2031</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$25:$N$37</c:f>
+              <c:f>Sheet1!$N$36:$N$56</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>83.613302403905763</c:v>
                 </c:pt>
@@ -2673,7 +2795,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$24</c:f>
+              <c:f>Sheet1!$O$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2699,10 +2821,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$J$25:$J$37</c:f>
+              <c:f>Sheet1!$J$36:$J$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2011</c:v>
                 </c:pt>
@@ -2741,16 +2863,40 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2031</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$O$25:$O$37</c:f>
+              <c:f>Sheet1!$O$36:$O$56</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>78.142766413484992</c:v>
                 </c:pt>
@@ -2805,7 +2951,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$24</c:f>
+              <c:f>Sheet1!$P$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2840,10 +2986,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$J$25:$J$37</c:f>
+              <c:f>Sheet1!$J$36:$J$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2011</c:v>
                 </c:pt>
@@ -2882,16 +3028,40 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2031</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$P$25:$P$37</c:f>
+              <c:f>Sheet1!$P$36:$P$56</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="7">
                   <c:v>10</c:v>
                 </c:pt>
@@ -2910,7 +3080,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Q$24</c:f>
+              <c:f>Sheet1!$Q$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2947,10 +3117,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$J$25:$J$37</c:f>
+              <c:f>Sheet1!$J$36:$J$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2011</c:v>
                 </c:pt>
@@ -2989,16 +3159,40 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2031</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$25:$Q$37</c:f>
+              <c:f>Sheet1!$Q$36:$Q$56</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="11">
                   <c:v>14.4</c:v>
                 </c:pt>
@@ -3017,7 +3211,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$R$24</c:f>
+              <c:f>Sheet1!$R$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3052,10 +3246,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$J$25:$J$37</c:f>
+              <c:f>Sheet1!$J$36:$J$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2011</c:v>
                 </c:pt>
@@ -3094,16 +3288,40 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2031</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$R$25:$R$37</c:f>
+              <c:f>Sheet1!$R$36:$R$56</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="11">
                   <c:v>15.699999999999998</c:v>
                 </c:pt>
@@ -3122,7 +3340,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$S$24</c:f>
+              <c:f>Sheet1!$S$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3157,10 +3375,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$J$25:$J$37</c:f>
+              <c:f>Sheet1!$J$36:$J$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2011</c:v>
                 </c:pt>
@@ -3199,18 +3417,54 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2031</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$S$25:$S$37</c:f>
+              <c:f>Sheet1!$S$36:$S$56</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="11">
                   <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3227,7 +3481,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$T$24</c:f>
+              <c:f>Sheet1!$T$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3260,10 +3514,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$J$25:$J$37</c:f>
+              <c:f>Sheet1!$J$36:$J$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2011</c:v>
                 </c:pt>
@@ -3302,18 +3556,54 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2031</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$T$25:$T$37</c:f>
+              <c:f>Sheet1!$T$36:$T$56</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="11">
                   <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>7.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3330,7 +3620,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$U$24</c:f>
+              <c:f>Sheet1!$U$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3365,10 +3655,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$J$25:$J$37</c:f>
+              <c:f>Sheet1!$J$36:$J$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2011</c:v>
                 </c:pt>
@@ -3407,18 +3697,54 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2031</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$U$25:$U$37</c:f>
+              <c:f>Sheet1!$U$36:$U$56</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="11">
                   <c:v>20.999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3435,7 +3761,7 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$V$24</c:f>
+              <c:f>Sheet1!$V$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3471,10 +3797,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$J$25:$J$37</c:f>
+              <c:f>Sheet1!$J$36:$J$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2011</c:v>
                 </c:pt>
@@ -3513,18 +3839,54 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2031</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$V$25:$V$37</c:f>
+              <c:f>Sheet1!$V$36:$V$56</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="11">
                   <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3533,6 +3895,399 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000B-6DC8-45A7-9B39-32C2EA08C28B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$W$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Zhang 2021 PERC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="DAA600"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$36:$J$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2031</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$W$36:$W$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="9">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A024-4E28-961A-8DA068FB4166}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$X$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Zhang 2021 TOPCon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFDC6D"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$36:$J$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2031</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$36:$X$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="9">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A024-4E28-961A-8DA068FB4166}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Y$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Zhang 2021 SHJ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$36:$J$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2031</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y$36:$Y$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="9">
+                  <c:v>33.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A024-4E28-961A-8DA068FB4166}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3731,6 +4486,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.69284524455777108"/>
+          <c:y val="1.230725313414373E-3"/>
+          <c:w val="0.30588463198622906"/>
+          <c:h val="0.92370744417817341"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4916,16 +5681,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>819149</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>22223</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1362075</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>781049</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>809624</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>88899</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4952,16 +5717,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>115887</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>236537</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>1396365</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>370840</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5306,10 +6071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6364A564-B4E8-4924-8FFF-B58B6768B92A}">
-  <dimension ref="A1:V37"/>
+  <dimension ref="A1:Y58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I22" workbookViewId="0">
-      <selection activeCell="R49" sqref="R49"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5361,16 +6126,16 @@
       <c r="K3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" t="s">
         <v>25</v>
       </c>
       <c r="P3" t="s">
@@ -5418,37 +6183,37 @@
         <f>I4/1000</f>
         <v>31.878163000000001</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="3">
         <v>2096.3578120000002</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="4">
         <v>2445.3360130000001</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="4">
         <v>2467.9803000000002</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="11">
         <v>2665.4384829999999</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="4">
         <v>2491.0478450000001</v>
       </c>
-      <c r="P4" s="8">
-        <f>$B$13*J4</f>
+      <c r="P4" s="5">
+        <f t="shared" ref="P4:P16" si="0">$B$13*J4</f>
         <v>318.78163000000001</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="Q4" s="6">
         <f>$C$9*I4</f>
         <v>459.04554720000004</v>
       </c>
-      <c r="R4" s="9">
+      <c r="R4" s="6">
         <f>$C$10*I4</f>
         <v>500.48715909999999</v>
       </c>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
@@ -5470,40 +6235,40 @@
         <v>29530.351999999901</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J16" si="0">I5/1000</f>
+        <f t="shared" ref="J5:J16" si="1">I5/1000</f>
         <v>29.530351999999901</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="3">
         <v>1710.677739</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="4">
         <v>1799.6264120000001</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="4">
         <v>1816.29224</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="11">
         <v>1961.6182630000001</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="4">
         <v>1833.2695799999999</v>
       </c>
-      <c r="P5" s="8">
-        <f>$B$13*J5</f>
+      <c r="P5" s="5">
+        <f t="shared" si="0"/>
         <v>295.30351999999903</v>
       </c>
-      <c r="Q5" s="9">
-        <f t="shared" ref="Q5:Q16" si="1">$C$9*I5</f>
+      <c r="Q5" s="6">
+        <f t="shared" ref="Q5:Q16" si="2">$C$9*I5</f>
         <v>425.23706879999861</v>
       </c>
-      <c r="R5" s="9">
-        <f t="shared" ref="R5:R16" si="2">$C$10*I5</f>
+      <c r="R5" s="6">
+        <f t="shared" ref="R5:R16" si="3">$C$10*I5</f>
         <v>463.6265263999984</v>
       </c>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
@@ -5525,40 +6290,40 @@
         <v>35481.639000000003</v>
       </c>
       <c r="J6">
+        <f t="shared" si="1"/>
+        <v>35.481639000000001</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1570.713197</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1470.1184499999999</v>
+      </c>
+      <c r="M6" s="4">
+        <v>1483.7331180000001</v>
+      </c>
+      <c r="N6" s="11">
+        <v>1602.4530239999999</v>
+      </c>
+      <c r="O6" s="4">
+        <v>1497.6022660000001</v>
+      </c>
+      <c r="P6" s="5">
         <f t="shared" si="0"/>
-        <v>35.481639000000001</v>
-      </c>
-      <c r="K6" s="6">
-        <v>1570.713197</v>
-      </c>
-      <c r="L6" s="7">
-        <v>1470.1184499999999</v>
-      </c>
-      <c r="M6" s="7">
-        <v>1483.7331180000001</v>
-      </c>
-      <c r="N6" s="7">
-        <v>1602.4530239999999</v>
-      </c>
-      <c r="O6" s="7">
-        <v>1497.6022660000001</v>
-      </c>
-      <c r="P6" s="8">
-        <f>$B$13*J6</f>
         <v>354.81639000000001</v>
       </c>
-      <c r="Q6" s="9">
-        <f t="shared" si="1"/>
+      <c r="Q6" s="6">
+        <f t="shared" si="2"/>
         <v>510.9356016000001</v>
       </c>
-      <c r="R6" s="9">
-        <f t="shared" si="2"/>
+      <c r="R6" s="6">
+        <f t="shared" si="3"/>
         <v>557.06173230000002</v>
       </c>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
@@ -5574,40 +6339,40 @@
         <v>38389.209000000003</v>
       </c>
       <c r="J7">
+        <f t="shared" si="1"/>
+        <v>38.389209000000001</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1505.3964109999999</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1464.706717</v>
+      </c>
+      <c r="M7" s="4">
+        <v>1478.2717829999999</v>
+      </c>
+      <c r="N7" s="11">
+        <v>1596.5591569999999</v>
+      </c>
+      <c r="O7" s="4">
+        <v>1492.090402</v>
+      </c>
+      <c r="P7" s="5">
         <f t="shared" si="0"/>
-        <v>38.389209000000001</v>
-      </c>
-      <c r="K7" s="6">
-        <v>1505.3964109999999</v>
-      </c>
-      <c r="L7" s="7">
-        <v>1464.706717</v>
-      </c>
-      <c r="M7" s="7">
-        <v>1478.2717829999999</v>
-      </c>
-      <c r="N7" s="7">
-        <v>1596.5591569999999</v>
-      </c>
-      <c r="O7" s="7">
-        <v>1492.090402</v>
-      </c>
-      <c r="P7" s="8">
-        <f>$B$13*J7</f>
         <v>383.89209</v>
       </c>
-      <c r="Q7" s="9">
-        <f t="shared" si="1"/>
+      <c r="Q7" s="6">
+        <f t="shared" si="2"/>
         <v>552.80460960000005</v>
       </c>
-      <c r="R7" s="9">
-        <f t="shared" si="2"/>
+      <c r="R7" s="6">
+        <f t="shared" si="3"/>
         <v>602.71058129999994</v>
       </c>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
@@ -5623,59 +6388,57 @@
         <v>47586.455999999998</v>
       </c>
       <c r="J8">
+        <f t="shared" si="1"/>
+        <v>47.586455999999998</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1682.684831</v>
+      </c>
+      <c r="L8" s="4">
+        <v>1477.1838809999999</v>
+      </c>
+      <c r="M8" s="4">
+        <v>1490.8645100000001</v>
+      </c>
+      <c r="N8" s="11">
+        <v>1610.159598</v>
+      </c>
+      <c r="O8" s="4">
+        <v>1504.8008520000001</v>
+      </c>
+      <c r="P8" s="5">
         <f t="shared" si="0"/>
-        <v>47.586455999999998</v>
-      </c>
-      <c r="K8" s="6">
-        <v>1682.684831</v>
-      </c>
-      <c r="L8" s="7">
-        <v>1477.1838809999999</v>
-      </c>
-      <c r="M8" s="7">
-        <v>1490.8645100000001</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1610.159598</v>
-      </c>
-      <c r="O8" s="7">
-        <v>1504.8008520000001</v>
-      </c>
-      <c r="P8" s="8">
-        <f>$B$13*J8</f>
         <v>475.86455999999998</v>
       </c>
-      <c r="Q8" s="9">
-        <f t="shared" si="1"/>
+      <c r="Q8" s="6">
+        <f t="shared" si="2"/>
         <v>685.24496640000007</v>
       </c>
-      <c r="R8" s="9">
-        <f t="shared" si="2"/>
+      <c r="R8" s="6">
+        <f t="shared" si="3"/>
         <v>747.10735919999991</v>
       </c>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <f>C5*($C$8/$C$7)</f>
         <v>1.4400000000000001E-2</v>
       </c>
-      <c r="D9" s="3">
-        <f t="shared" ref="D9:E10" si="3">D5*($C$8/$C$7)</f>
+      <c r="D9">
+        <f t="shared" ref="D9:E10" si="4">D5*($C$8/$C$7)</f>
         <v>2.0399999999999998E-2</v>
       </c>
-      <c r="E9" s="3">
-        <f t="shared" si="3"/>
+      <c r="E9">
+        <f t="shared" si="4"/>
         <v>3.0300000000000001E-2</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
       <c r="H9">
         <v>2016</v>
       </c>
@@ -5683,59 +6446,57 @@
         <v>72025.327999999805</v>
       </c>
       <c r="J9">
+        <f t="shared" si="1"/>
+        <v>72.025327999999803</v>
+      </c>
+      <c r="K9" s="3">
+        <v>2914.3728030000002</v>
+      </c>
+      <c r="L9" s="4">
+        <v>1961.9332320000001</v>
+      </c>
+      <c r="M9" s="4">
+        <v>1980.1023580000001</v>
+      </c>
+      <c r="N9" s="11">
+        <v>2138.5371409999998</v>
+      </c>
+      <c r="O9" s="4">
+        <v>1998.611095</v>
+      </c>
+      <c r="P9" s="5">
         <f t="shared" si="0"/>
-        <v>72.025327999999803</v>
-      </c>
-      <c r="K9" s="6">
-        <v>2914.3728030000002</v>
-      </c>
-      <c r="L9" s="7">
-        <v>1961.9332320000001</v>
-      </c>
-      <c r="M9" s="7">
-        <v>1980.1023580000001</v>
-      </c>
-      <c r="N9" s="7">
-        <v>2138.5371409999998</v>
-      </c>
-      <c r="O9" s="7">
-        <v>1998.611095</v>
-      </c>
-      <c r="P9" s="8">
-        <f>$B$13*J9</f>
         <v>720.25327999999809</v>
       </c>
-      <c r="Q9" s="9">
-        <f t="shared" si="1"/>
+      <c r="Q9" s="6">
+        <f t="shared" si="2"/>
         <v>1037.1647231999973</v>
       </c>
-      <c r="R9" s="9">
-        <f t="shared" si="2"/>
+      <c r="R9" s="6">
+        <f t="shared" si="3"/>
         <v>1130.7976495999969</v>
       </c>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <f>C6*($C$8/$C$7)</f>
         <v>1.5699999999999999E-2</v>
       </c>
-      <c r="D10" s="3">
-        <f t="shared" si="3"/>
+      <c r="D10">
+        <f t="shared" si="4"/>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="E10" s="3">
-        <f t="shared" si="3"/>
+      <c r="E10">
+        <f t="shared" si="4"/>
         <v>3.7400000000000003E-2</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
       <c r="H10">
         <v>2017</v>
       </c>
@@ -5743,40 +6504,40 @@
         <v>94974.657120000003</v>
       </c>
       <c r="J10">
+        <f t="shared" si="1"/>
+        <v>94.974657120000003</v>
+      </c>
+      <c r="K10" s="3">
+        <v>3166.3089799999998</v>
+      </c>
+      <c r="L10" s="4">
+        <v>2541.8521919999998</v>
+      </c>
+      <c r="M10" s="4">
+        <v>2565.3910860000001</v>
+      </c>
+      <c r="N10" s="11">
+        <v>2770.6502380000002</v>
+      </c>
+      <c r="O10" s="4">
+        <v>2589.3699590000001</v>
+      </c>
+      <c r="P10" s="5">
         <f t="shared" si="0"/>
-        <v>94.974657120000003</v>
-      </c>
-      <c r="K10" s="6">
-        <v>3166.3089799999998</v>
-      </c>
-      <c r="L10" s="7">
-        <v>2541.8521919999998</v>
-      </c>
-      <c r="M10" s="7">
-        <v>2565.3910860000001</v>
-      </c>
-      <c r="N10" s="7">
-        <v>2770.6502380000002</v>
-      </c>
-      <c r="O10" s="7">
-        <v>2589.3699590000001</v>
-      </c>
-      <c r="P10" s="8">
-        <f>$B$13*J10</f>
         <v>949.74657120000006</v>
       </c>
-      <c r="Q10" s="9">
-        <f t="shared" si="1"/>
+      <c r="Q10" s="6">
+        <f t="shared" si="2"/>
         <v>1367.6350625280002</v>
       </c>
-      <c r="R10" s="9">
-        <f t="shared" si="2"/>
+      <c r="R10" s="6">
+        <f t="shared" si="3"/>
         <v>1491.1021167839999</v>
       </c>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="H11">
@@ -5786,40 +6547,40 @@
         <v>92786.698500000493</v>
       </c>
       <c r="J11">
+        <f t="shared" si="1"/>
+        <v>92.786698500000497</v>
+      </c>
+      <c r="K11" s="3">
+        <v>2877.0489250000001</v>
+      </c>
+      <c r="L11" s="4">
+        <v>2547.0204349999999</v>
+      </c>
+      <c r="M11" s="4">
+        <v>2570.607043</v>
+      </c>
+      <c r="N11" s="11">
+        <v>2776.2822719999999</v>
+      </c>
+      <c r="O11" s="4">
+        <v>2594.6345230000002</v>
+      </c>
+      <c r="P11" s="5">
         <f t="shared" si="0"/>
-        <v>92.786698500000497</v>
-      </c>
-      <c r="K11" s="6">
-        <v>2877.0489250000001</v>
-      </c>
-      <c r="L11" s="7">
-        <v>2547.0204349999999</v>
-      </c>
-      <c r="M11" s="7">
-        <v>2570.607043</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2776.2822719999999</v>
-      </c>
-      <c r="O11" s="7">
-        <v>2594.6345230000002</v>
-      </c>
-      <c r="P11" s="8">
-        <f>$B$13*J11</f>
         <v>927.866985000005</v>
       </c>
-      <c r="Q11" s="9">
-        <f t="shared" si="1"/>
+      <c r="Q11" s="6">
+        <f t="shared" si="2"/>
         <v>1336.1284584000073</v>
       </c>
-      <c r="R11" s="9">
-        <f t="shared" si="2"/>
+      <c r="R11" s="6">
+        <f t="shared" si="3"/>
         <v>1456.7511664500075</v>
       </c>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
@@ -5832,40 +6593,40 @@
         <v>101632.849999999</v>
       </c>
       <c r="J12">
+        <f t="shared" si="1"/>
+        <v>101.632849999999</v>
+      </c>
+      <c r="K12" s="3">
+        <v>3041.8960529999999</v>
+      </c>
+      <c r="L12" s="4">
+        <v>2582.3290750000001</v>
+      </c>
+      <c r="M12" s="4">
+        <v>2606.2416910000002</v>
+      </c>
+      <c r="N12" s="11">
+        <v>2814.759697</v>
+      </c>
+      <c r="O12" s="4">
+        <v>2630.601271</v>
+      </c>
+      <c r="P12" s="5">
         <f t="shared" si="0"/>
-        <v>101.632849999999</v>
-      </c>
-      <c r="K12" s="6">
-        <v>3041.8960529999999</v>
-      </c>
-      <c r="L12" s="7">
-        <v>2582.3290750000001</v>
-      </c>
-      <c r="M12" s="7">
-        <v>2606.2416910000002</v>
-      </c>
-      <c r="N12" s="7">
-        <v>2814.759697</v>
-      </c>
-      <c r="O12" s="7">
-        <v>2630.601271</v>
-      </c>
-      <c r="P12" s="8">
-        <f>$B$13*J12</f>
         <v>1016.32849999999</v>
       </c>
-      <c r="Q12" s="9">
-        <f t="shared" si="1"/>
+      <c r="Q12" s="6">
+        <f t="shared" si="2"/>
         <v>1463.5130399999857</v>
       </c>
-      <c r="R12" s="9">
-        <f t="shared" si="2"/>
+      <c r="R12" s="6">
+        <f t="shared" si="3"/>
         <v>1595.6357449999841</v>
       </c>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B13">
@@ -5881,40 +6642,40 @@
         <v>126077.079</v>
       </c>
       <c r="J13">
+        <f t="shared" si="1"/>
+        <v>126.077079</v>
+      </c>
+      <c r="K13" s="3">
+        <v>3110.323163</v>
+      </c>
+      <c r="L13" s="4">
+        <v>2668.930789</v>
+      </c>
+      <c r="M13" s="4">
+        <v>2693.6987359999998</v>
+      </c>
+      <c r="N13" s="11">
+        <v>2909.6752320000001</v>
+      </c>
+      <c r="O13" s="4">
+        <v>2718.929635</v>
+      </c>
+      <c r="P13" s="5">
         <f t="shared" si="0"/>
-        <v>126.077079</v>
-      </c>
-      <c r="K13" s="6">
-        <v>3110.323163</v>
-      </c>
-      <c r="L13" s="7">
-        <v>2668.930789</v>
-      </c>
-      <c r="M13" s="7">
-        <v>2693.6987359999998</v>
-      </c>
-      <c r="N13" s="7">
-        <v>2909.6752320000001</v>
-      </c>
-      <c r="O13" s="7">
-        <v>2718.929635</v>
-      </c>
-      <c r="P13" s="8">
-        <f>$B$13*J13</f>
         <v>1260.77079</v>
       </c>
-      <c r="Q13" s="9">
-        <f t="shared" si="1"/>
+      <c r="Q13" s="6">
+        <f t="shared" si="2"/>
         <v>1815.5099376000001</v>
       </c>
-      <c r="R13" s="9">
-        <f t="shared" si="2"/>
+      <c r="R13" s="6">
+        <f t="shared" si="3"/>
         <v>1979.4101402999997</v>
       </c>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="H14">
@@ -5924,40 +6685,40 @@
         <v>137704.307</v>
       </c>
       <c r="J14">
+        <f t="shared" si="1"/>
+        <v>137.704307</v>
+      </c>
+      <c r="K14" s="3">
+        <v>3421.3554789999998</v>
+      </c>
+      <c r="L14" s="4">
+        <v>2600.2257049999998</v>
+      </c>
+      <c r="M14" s="4">
+        <v>2624.238852</v>
+      </c>
+      <c r="N14" s="11">
+        <v>2833.6334999999999</v>
+      </c>
+      <c r="O14" s="4">
+        <v>2648.700844</v>
+      </c>
+      <c r="P14" s="5">
         <f t="shared" si="0"/>
-        <v>137.704307</v>
-      </c>
-      <c r="K14" s="6">
-        <v>3421.3554789999998</v>
-      </c>
-      <c r="L14" s="7">
-        <v>2600.2257049999998</v>
-      </c>
-      <c r="M14" s="7">
-        <v>2624.238852</v>
-      </c>
-      <c r="N14" s="7">
-        <v>2833.6334999999999</v>
-      </c>
-      <c r="O14" s="7">
-        <v>2648.700844</v>
-      </c>
-      <c r="P14" s="8">
-        <f>$B$13*J14</f>
         <v>1377.0430699999999</v>
       </c>
-      <c r="Q14" s="9">
-        <f t="shared" si="1"/>
+      <c r="Q14" s="6">
+        <f t="shared" si="2"/>
         <v>1982.9420208000001</v>
       </c>
-      <c r="R14" s="9">
-        <f t="shared" si="2"/>
+      <c r="R14" s="6">
+        <f t="shared" si="3"/>
         <v>2161.9576198999998</v>
       </c>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
@@ -5982,49 +6743,49 @@
         <v>198209.77237874901</v>
       </c>
       <c r="J15">
+        <f t="shared" si="1"/>
+        <v>198.20977237874902</v>
+      </c>
+      <c r="K15" s="3">
+        <v>4363.7833970000002</v>
+      </c>
+      <c r="L15" s="4">
+        <v>6865.0858660000004</v>
+      </c>
+      <c r="M15" s="4">
+        <v>5398.1536569999998</v>
+      </c>
+      <c r="N15" s="11">
+        <v>3714.4657040000002</v>
+      </c>
+      <c r="O15" s="4">
+        <v>3275.0289299999999</v>
+      </c>
+      <c r="P15" s="5">
         <f t="shared" si="0"/>
-        <v>198.20977237874902</v>
-      </c>
-      <c r="K15" s="6">
-        <v>4363.7833970000002</v>
-      </c>
-      <c r="L15" s="7">
-        <v>6865.0858660000004</v>
-      </c>
-      <c r="M15" s="7">
-        <v>5398.1536569999998</v>
-      </c>
-      <c r="N15" s="7">
-        <v>3714.4657040000002</v>
-      </c>
-      <c r="O15" s="7">
-        <v>3275.0289299999999</v>
-      </c>
-      <c r="P15" s="8">
-        <f>$B$13*J15</f>
         <v>1982.0977237874902</v>
       </c>
-      <c r="Q15" s="9">
-        <f t="shared" si="1"/>
+      <c r="Q15" s="6">
+        <f t="shared" si="2"/>
         <v>2854.220722253986</v>
       </c>
-      <c r="R15" s="9">
-        <f t="shared" si="2"/>
+      <c r="R15" s="6">
+        <f t="shared" si="3"/>
         <v>3111.8934263463593</v>
       </c>
-      <c r="S15" s="10">
+      <c r="S15" s="7">
         <f>C16*$J15</f>
         <v>2180.3074961662392</v>
       </c>
-      <c r="T15" s="10">
+      <c r="T15" s="7">
         <f>D16*$J15</f>
         <v>2279.4123823556138</v>
       </c>
-      <c r="U15" s="10">
+      <c r="U15" s="7">
         <f>E16*$J15</f>
         <v>4162.4052199537291</v>
       </c>
-      <c r="V15" s="10">
+      <c r="V15" s="7">
         <f>F16*$J15</f>
         <v>5153.4540818474743</v>
       </c>
@@ -6048,49 +6809,49 @@
       <c r="F16">
         <v>26</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <v>2023</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="1">
         <v>353035.018534009</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="1">
+        <f t="shared" si="1"/>
+        <v>353.035018534009</v>
+      </c>
+      <c r="K16" s="3">
+        <v>5010.7306150000004</v>
+      </c>
+      <c r="L16" s="4">
+        <v>11224.674432</v>
+      </c>
+      <c r="M16" s="4">
+        <v>8973.4128390000005</v>
+      </c>
+      <c r="N16" s="11">
+        <v>5907.8633369999998</v>
+      </c>
+      <c r="O16" s="4">
+        <v>5452.8905269999996</v>
+      </c>
+      <c r="P16" s="5">
         <f t="shared" si="0"/>
-        <v>353.035018534009</v>
-      </c>
-      <c r="K16" s="6">
-        <v>5010.7306150000004</v>
-      </c>
-      <c r="L16" s="7">
-        <v>11224.674432</v>
-      </c>
-      <c r="M16" s="7">
-        <v>8973.4128390000005</v>
-      </c>
-      <c r="N16" s="7">
-        <v>5907.8633369999998</v>
-      </c>
-      <c r="O16" s="7">
-        <v>5452.8905269999996</v>
-      </c>
-      <c r="P16" s="8">
-        <f>$B$13*J16</f>
         <v>3530.3501853400899</v>
       </c>
-      <c r="Q16" s="9">
-        <f t="shared" si="1"/>
+      <c r="Q16" s="6">
+        <f t="shared" si="2"/>
         <v>5083.7042668897302</v>
       </c>
-      <c r="R16" s="9">
-        <f t="shared" si="2"/>
+      <c r="R16" s="6">
+        <f t="shared" si="3"/>
         <v>5542.6497909839409</v>
       </c>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -6109,498 +6870,833 @@
       <c r="F17">
         <v>14</v>
       </c>
-      <c r="M17" s="4"/>
+      <c r="H17" s="12">
+        <v>2024</v>
+      </c>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="L17" s="11">
+        <v>15312.874656</v>
+      </c>
+      <c r="M17" s="11">
+        <v>12470.695829</v>
+      </c>
+      <c r="N17" s="11">
+        <v>7981.2912980000001</v>
+      </c>
+      <c r="O17" s="11">
+        <v>7591.1814510000004</v>
+      </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="H18">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="H18" s="12">
+        <v>2025</v>
+      </c>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="L18" s="11">
+        <v>18653.055218000001</v>
+      </c>
+      <c r="M18" s="11">
+        <v>15511.981981999999</v>
+      </c>
+      <c r="N18" s="11">
+        <v>9862.3492279999991</v>
+      </c>
+      <c r="O18" s="11">
+        <v>9460.0945429999992</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="H19" s="12">
+        <v>2026</v>
+      </c>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="L19" s="11">
+        <v>21262.600633999999</v>
+      </c>
+      <c r="M19" s="11">
+        <v>18107.729458000002</v>
+      </c>
+      <c r="N19" s="11">
+        <v>11490.831147999999</v>
+      </c>
+      <c r="O19" s="11">
+        <v>11065.465296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="H20" s="12">
+        <v>2027</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="L20" s="11">
+        <v>23144.698991000001</v>
+      </c>
+      <c r="M20" s="11">
+        <v>20256.704711999999</v>
+      </c>
+      <c r="N20" s="11">
+        <v>12882.633226</v>
+      </c>
+      <c r="O20" s="11">
+        <v>12407.911469999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="H21" s="12">
+        <v>2028</v>
+      </c>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="L21" s="11">
+        <v>24353.959189000001</v>
+      </c>
+      <c r="M21" s="11">
+        <v>21999.935785999998</v>
+      </c>
+      <c r="N21" s="11">
+        <v>14026.531386000001</v>
+      </c>
+      <c r="O21" s="11">
+        <v>13505.681661000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="H22" s="12">
+        <v>2029</v>
+      </c>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="L22" s="11">
+        <v>24878.411069999998</v>
+      </c>
+      <c r="M22" s="11">
+        <v>23323.813142999999</v>
+      </c>
+      <c r="N22" s="11">
+        <v>14929.769359</v>
+      </c>
+      <c r="O22" s="11">
+        <v>14349.247076</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="H23" s="12">
+        <v>2030</v>
+      </c>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="L23" s="11">
+        <v>24722.417232</v>
+      </c>
+      <c r="M23" s="11">
+        <v>24227.960341999998</v>
+      </c>
+      <c r="N23" s="11">
+        <v>15590.571825999999</v>
+      </c>
+      <c r="O23" s="11">
+        <v>14937.500712999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="H24" s="12">
+        <v>2031</v>
+      </c>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="L24" s="11">
+        <v>27095.774536000001</v>
+      </c>
+      <c r="M24" s="11">
+        <v>26559.376681999998</v>
+      </c>
+      <c r="N24" s="11">
+        <v>17182.485692999999</v>
+      </c>
+      <c r="O24" s="11">
+        <v>16315.167041999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="H25" s="12">
+        <v>2032</v>
+      </c>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="L25" s="11">
+        <v>29489.629905000002</v>
+      </c>
+      <c r="M25" s="11">
+        <v>28906.491811</v>
+      </c>
+      <c r="N25" s="11">
+        <v>18937.496166000001</v>
+      </c>
+      <c r="O25" s="11">
+        <v>17615.345884999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="H26" s="12">
+        <v>2033</v>
+      </c>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="L26" s="11">
+        <v>31669.672444</v>
+      </c>
+      <c r="M26" s="11">
+        <v>31050.406180000002</v>
+      </c>
+      <c r="N26" s="11">
+        <v>20467.743361000001</v>
+      </c>
+      <c r="O26" s="11">
+        <v>18853.852359</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="H27" s="12">
+        <v>2034</v>
+      </c>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="M27" s="10"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="M28" s="10"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="H29" s="12">
         <v>2050</v>
       </c>
-      <c r="I18">
+      <c r="I29" s="12">
         <v>4929349.6728231404</v>
       </c>
+      <c r="J29" s="12"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="K23" t="s">
+    <row r="34" spans="10:25" x14ac:dyDescent="0.35">
+      <c r="K34" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="J24" t="s">
+    <row r="35" spans="10:25" x14ac:dyDescent="0.35">
+      <c r="J35" t="s">
         <v>14</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L24" s="5" t="s">
+      <c r="L35" t="s">
         <v>22</v>
       </c>
-      <c r="M24" s="5" t="s">
+      <c r="M35" t="s">
         <v>23</v>
       </c>
-      <c r="N24" s="5" t="s">
+      <c r="N35" t="s">
         <v>24</v>
       </c>
-      <c r="O24" s="5" t="s">
+      <c r="O35" t="s">
         <v>25</v>
       </c>
-      <c r="P24" t="s">
+      <c r="P35" t="s">
         <v>10</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="Q35" t="s">
         <v>32</v>
       </c>
-      <c r="R24" t="s">
+      <c r="R35" t="s">
         <v>33</v>
       </c>
-      <c r="S24" t="s">
+      <c r="S35" t="s">
         <v>28</v>
       </c>
-      <c r="T24" t="s">
+      <c r="T35" t="s">
         <v>29</v>
       </c>
-      <c r="U24" t="s">
+      <c r="U35" t="s">
         <v>30</v>
       </c>
-      <c r="V24" t="s">
+      <c r="V35" t="s">
         <v>31</v>
       </c>
+      <c r="W35" t="s">
+        <v>35</v>
+      </c>
+      <c r="X35" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="J25">
+    <row r="36" spans="10:25" x14ac:dyDescent="0.35">
+      <c r="J36">
         <v>2011</v>
       </c>
-      <c r="K25" s="11">
-        <f>K4/J4</f>
+      <c r="K36" s="8">
+        <f t="shared" ref="K36:K48" si="5">K4/J4</f>
         <v>65.761562609489147</v>
       </c>
-      <c r="L25" s="12">
+      <c r="L36" s="9">
         <f>L4/$J4</f>
         <v>76.708812016551903</v>
       </c>
-      <c r="M25" s="12">
-        <f t="shared" ref="M25:O25" si="4">M4/$J4</f>
+      <c r="M36" s="9">
+        <f>M4/$J4</f>
         <v>77.419150532607546</v>
       </c>
-      <c r="N25" s="12">
-        <f t="shared" si="4"/>
+      <c r="N36" s="9">
+        <f>N4/$J4</f>
         <v>83.613302403905763</v>
       </c>
-      <c r="O25" s="12">
-        <f t="shared" si="4"/>
+      <c r="O36" s="9">
+        <f>O4/$J4</f>
         <v>78.142766413484992</v>
       </c>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="J26">
+    <row r="37" spans="10:25" x14ac:dyDescent="0.35">
+      <c r="J37">
         <v>2012</v>
       </c>
-      <c r="K26" s="11">
-        <f>K5/J5</f>
+      <c r="K37" s="8">
+        <f t="shared" si="5"/>
         <v>57.929473343223464</v>
       </c>
-      <c r="L26" s="12">
-        <f t="shared" ref="L26:O37" si="5">L5/$J5</f>
+      <c r="L37" s="9">
+        <f t="shared" ref="L37:O48" si="6">L5/$J5</f>
         <v>60.941583493485147</v>
       </c>
-      <c r="M26" s="12">
+      <c r="M37" s="9">
+        <f t="shared" si="6"/>
+        <v>61.505946153300378</v>
+      </c>
+      <c r="N37" s="9">
+        <f t="shared" si="6"/>
+        <v>66.427188643061442</v>
+      </c>
+      <c r="O37" s="9">
+        <f t="shared" si="6"/>
+        <v>62.080857688388072</v>
+      </c>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+    </row>
+    <row r="38" spans="10:25" x14ac:dyDescent="0.35">
+      <c r="J38">
+        <v>2013</v>
+      </c>
+      <c r="K38" s="8">
         <f t="shared" si="5"/>
-        <v>61.505946153300378</v>
-      </c>
-      <c r="N26" s="12">
+        <v>44.268338252356379</v>
+      </c>
+      <c r="L38" s="9">
+        <f t="shared" si="6"/>
+        <v>41.433217050655408</v>
+      </c>
+      <c r="M38" s="9">
+        <f t="shared" si="6"/>
+        <v>41.816927284559767</v>
+      </c>
+      <c r="N38" s="9">
+        <f t="shared" si="6"/>
+        <v>45.1628805535167</v>
+      </c>
+      <c r="O38" s="9">
+        <f t="shared" si="6"/>
+        <v>42.207809678690438</v>
+      </c>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+    </row>
+    <row r="39" spans="10:25" x14ac:dyDescent="0.35">
+      <c r="J39">
+        <v>2014</v>
+      </c>
+      <c r="K39" s="8">
         <f t="shared" si="5"/>
-        <v>66.427188643061442</v>
-      </c>
-      <c r="O26" s="12">
+        <v>39.214051297592505</v>
+      </c>
+      <c r="L39" s="9">
+        <f t="shared" si="6"/>
+        <v>38.154125994104227</v>
+      </c>
+      <c r="M39" s="9">
+        <f t="shared" si="6"/>
+        <v>38.507482219808175</v>
+      </c>
+      <c r="N39" s="9">
+        <f t="shared" si="6"/>
+        <v>41.588748468352129</v>
+      </c>
+      <c r="O39" s="9">
+        <f t="shared" si="6"/>
+        <v>38.86744324427211</v>
+      </c>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
+    </row>
+    <row r="40" spans="10:25" x14ac:dyDescent="0.35">
+      <c r="J40">
+        <v>2015</v>
+      </c>
+      <c r="K40" s="8">
         <f t="shared" si="5"/>
-        <v>62.080857688388072</v>
-      </c>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
+        <v>35.360583082715806</v>
+      </c>
+      <c r="L40" s="9">
+        <f t="shared" si="6"/>
+        <v>31.042107464359187</v>
+      </c>
+      <c r="M40" s="9">
+        <f t="shared" si="6"/>
+        <v>31.32959743839718</v>
+      </c>
+      <c r="N40" s="9">
+        <f t="shared" si="6"/>
+        <v>33.836510077573337</v>
+      </c>
+      <c r="O40" s="9">
+        <f t="shared" si="6"/>
+        <v>31.622461063290785</v>
+      </c>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="J27">
-        <v>2013</v>
-      </c>
-      <c r="K27" s="11">
-        <f>K6/J6</f>
-        <v>44.268338252356379</v>
-      </c>
-      <c r="L27" s="12">
+    <row r="41" spans="10:25" x14ac:dyDescent="0.35">
+      <c r="J41">
+        <v>2016</v>
+      </c>
+      <c r="K41" s="8">
         <f t="shared" si="5"/>
-        <v>41.433217050655408</v>
-      </c>
-      <c r="M27" s="12">
+        <v>40.463165999049778</v>
+      </c>
+      <c r="L41" s="9">
+        <f t="shared" si="6"/>
+        <v>27.239490419259255</v>
+      </c>
+      <c r="M41" s="9">
+        <f t="shared" si="6"/>
+        <v>27.491750651937405</v>
+      </c>
+      <c r="N41" s="9">
+        <f t="shared" si="6"/>
+        <v>29.691459940314409</v>
+      </c>
+      <c r="O41" s="9">
+        <f t="shared" si="6"/>
+        <v>27.748726045371225</v>
+      </c>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
+    </row>
+    <row r="42" spans="10:25" x14ac:dyDescent="0.35">
+      <c r="J42">
+        <v>2017</v>
+      </c>
+      <c r="K42" s="8">
         <f t="shared" si="5"/>
-        <v>41.816927284559767</v>
-      </c>
-      <c r="N27" s="12">
+        <v>33.338461817233878</v>
+      </c>
+      <c r="L42" s="9">
+        <f t="shared" si="6"/>
+        <v>26.763478480247443</v>
+      </c>
+      <c r="M42" s="9">
+        <f t="shared" si="6"/>
+        <v>27.011322428452058</v>
+      </c>
+      <c r="N42" s="9">
+        <f t="shared" si="6"/>
+        <v>29.172521618049092</v>
+      </c>
+      <c r="O42" s="9">
+        <f t="shared" si="6"/>
+        <v>27.263798970375266</v>
+      </c>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+    </row>
+    <row r="43" spans="10:25" x14ac:dyDescent="0.35">
+      <c r="J43">
+        <v>2018</v>
+      </c>
+      <c r="K43" s="8">
         <f t="shared" si="5"/>
-        <v>45.1628805535167</v>
-      </c>
-      <c r="O27" s="12">
+        <v>31.007126791993624</v>
+      </c>
+      <c r="L43" s="9">
+        <f t="shared" si="6"/>
+        <v>27.450275483182391</v>
+      </c>
+      <c r="M43" s="9">
+        <f t="shared" si="6"/>
+        <v>27.704477953809146</v>
+      </c>
+      <c r="N43" s="9">
+        <f t="shared" si="6"/>
+        <v>29.921123575702879</v>
+      </c>
+      <c r="O43" s="9">
+        <f t="shared" si="6"/>
+        <v>27.963431881348665</v>
+      </c>
+      <c r="P43" s="9">
+        <f t="shared" ref="P43" si="7">P11/$J11</f>
+        <v>10</v>
+      </c>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+    </row>
+    <row r="44" spans="10:25" x14ac:dyDescent="0.35">
+      <c r="J44">
+        <v>2019</v>
+      </c>
+      <c r="K44" s="8">
         <f t="shared" si="5"/>
-        <v>42.207809678690438</v>
-      </c>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
+        <v>29.930244532156976</v>
+      </c>
+      <c r="L44" s="9">
+        <f t="shared" si="6"/>
+        <v>25.408409534909488</v>
+      </c>
+      <c r="M44" s="9">
+        <f t="shared" si="6"/>
+        <v>25.643693854890678</v>
+      </c>
+      <c r="N44" s="9">
+        <f t="shared" si="6"/>
+        <v>27.695373070813499</v>
+      </c>
+      <c r="O44" s="9">
+        <f t="shared" si="6"/>
+        <v>25.883376004904182</v>
+      </c>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="J28">
-        <v>2014</v>
-      </c>
-      <c r="K28" s="11">
-        <f>K7/J7</f>
-        <v>39.214051297592505</v>
-      </c>
-      <c r="L28" s="12">
+    <row r="45" spans="10:25" x14ac:dyDescent="0.35">
+      <c r="J45">
+        <v>2020</v>
+      </c>
+      <c r="K45" s="8">
         <f t="shared" si="5"/>
-        <v>38.154125994104227</v>
-      </c>
-      <c r="M28" s="12">
+        <v>24.6700128815643</v>
+      </c>
+      <c r="L45" s="9">
+        <f t="shared" si="6"/>
+        <v>21.169040480387398</v>
+      </c>
+      <c r="M45" s="9">
+        <f t="shared" si="6"/>
+        <v>21.36549131186645</v>
+      </c>
+      <c r="N45" s="9">
+        <f t="shared" si="6"/>
+        <v>23.07854254776953</v>
+      </c>
+      <c r="O45" s="9">
+        <f t="shared" si="6"/>
+        <v>21.565614119280159</v>
+      </c>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="9"/>
+      <c r="W45">
+        <v>15.4</v>
+      </c>
+      <c r="X45">
+        <v>25.6</v>
+      </c>
+      <c r="Y45">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="46" spans="10:25" x14ac:dyDescent="0.35">
+      <c r="J46">
+        <v>2021</v>
+      </c>
+      <c r="K46" s="8">
         <f t="shared" si="5"/>
-        <v>38.507482219808175</v>
-      </c>
-      <c r="N28" s="12">
+        <v>24.845667891854681</v>
+      </c>
+      <c r="L46" s="9">
+        <f t="shared" si="6"/>
+        <v>18.882675216542065</v>
+      </c>
+      <c r="M46" s="9">
+        <f t="shared" si="6"/>
+        <v>19.057057176868113</v>
+      </c>
+      <c r="N46" s="9">
+        <f t="shared" si="6"/>
+        <v>20.577667915644788</v>
+      </c>
+      <c r="O46" s="9">
+        <f t="shared" si="6"/>
+        <v>19.234698621300204</v>
+      </c>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+    </row>
+    <row r="47" spans="10:25" x14ac:dyDescent="0.35">
+      <c r="J47">
+        <v>2022</v>
+      </c>
+      <c r="K47" s="8">
         <f t="shared" si="5"/>
-        <v>41.588748468352129</v>
-      </c>
-      <c r="O28" s="12">
+        <v>22.01598510824919</v>
+      </c>
+      <c r="L47" s="9">
+        <f t="shared" si="6"/>
+        <v>34.635456080751936</v>
+      </c>
+      <c r="M47" s="9">
+        <f t="shared" si="6"/>
+        <v>27.234548489793639</v>
+      </c>
+      <c r="N47" s="9">
+        <f t="shared" si="6"/>
+        <v>18.740073506074239</v>
+      </c>
+      <c r="O47" s="9">
+        <f t="shared" si="6"/>
+        <v>16.523044705091095</v>
+      </c>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9">
+        <f t="shared" ref="Q47:V47" si="8">Q15/$J15</f>
+        <v>14.4</v>
+      </c>
+      <c r="R47" s="9">
+        <f t="shared" si="8"/>
+        <v>15.699999999999998</v>
+      </c>
+      <c r="S47" s="9">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="T47" s="9">
+        <f t="shared" si="8"/>
+        <v>11.5</v>
+      </c>
+      <c r="U47" s="9">
+        <f t="shared" si="8"/>
+        <v>20.999999999999996</v>
+      </c>
+      <c r="V47" s="9">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="10:25" x14ac:dyDescent="0.35">
+      <c r="J48">
+        <v>2023</v>
+      </c>
+      <c r="K48" s="8">
         <f t="shared" si="5"/>
-        <v>38.86744324427211</v>
-      </c>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12"/>
+        <v>14.193296279239508</v>
+      </c>
+      <c r="L48" s="9">
+        <f>L16/$J16</f>
+        <v>31.794790439234262</v>
+      </c>
+      <c r="M48" s="9">
+        <f t="shared" si="6"/>
+        <v>25.417911447602084</v>
+      </c>
+      <c r="N48" s="9">
+        <f t="shared" si="6"/>
+        <v>16.734496655693313</v>
+      </c>
+      <c r="O48" s="9">
+        <f t="shared" si="6"/>
+        <v>15.445749686938507</v>
+      </c>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9">
+        <v>10</v>
+      </c>
+      <c r="T48" s="9">
+        <v>10.5</v>
+      </c>
+      <c r="U48" s="9">
+        <v>18</v>
+      </c>
+      <c r="V48" s="9">
+        <v>24</v>
+      </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="J29">
-        <v>2015</v>
-      </c>
-      <c r="K29" s="11">
-        <f>K8/J8</f>
-        <v>35.360583082715806</v>
-      </c>
-      <c r="L29" s="12">
-        <f t="shared" si="5"/>
-        <v>31.042107464359187</v>
-      </c>
-      <c r="M29" s="12">
-        <f t="shared" si="5"/>
-        <v>31.32959743839718</v>
-      </c>
-      <c r="N29" s="12">
-        <f t="shared" si="5"/>
-        <v>33.836510077573337</v>
-      </c>
-      <c r="O29" s="12">
-        <f t="shared" si="5"/>
-        <v>31.622461063290785</v>
-      </c>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="12"/>
+    <row r="49" spans="10:25" x14ac:dyDescent="0.35">
+      <c r="J49">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="J30">
-        <v>2016</v>
-      </c>
-      <c r="K30" s="11">
-        <f>K9/J9</f>
-        <v>40.463165999049778</v>
-      </c>
-      <c r="L30" s="12">
-        <f t="shared" si="5"/>
-        <v>27.239490419259255</v>
-      </c>
-      <c r="M30" s="12">
-        <f t="shared" si="5"/>
-        <v>27.491750651937405</v>
-      </c>
-      <c r="N30" s="12">
-        <f t="shared" si="5"/>
-        <v>29.691459940314409</v>
-      </c>
-      <c r="O30" s="12">
-        <f t="shared" si="5"/>
-        <v>27.748726045371225</v>
-      </c>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="12"/>
+    <row r="50" spans="10:25" x14ac:dyDescent="0.35">
+      <c r="J50">
+        <v>2025</v>
+      </c>
+      <c r="S50">
+        <v>9</v>
+      </c>
+      <c r="T50">
+        <v>9.5</v>
+      </c>
+      <c r="U50">
+        <v>16</v>
+      </c>
+      <c r="V50">
+        <v>19</v>
+      </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="J31">
-        <v>2017</v>
-      </c>
-      <c r="K31" s="11">
-        <f>K10/J10</f>
-        <v>33.338461817233878</v>
-      </c>
-      <c r="L31" s="12">
-        <f t="shared" si="5"/>
-        <v>26.763478480247443</v>
-      </c>
-      <c r="M31" s="12">
-        <f t="shared" si="5"/>
-        <v>27.011322428452058</v>
-      </c>
-      <c r="N31" s="12">
-        <f t="shared" si="5"/>
-        <v>29.172521618049092</v>
-      </c>
-      <c r="O31" s="12">
-        <f t="shared" si="5"/>
-        <v>27.263798970375266</v>
-      </c>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
+    <row r="51" spans="10:25" x14ac:dyDescent="0.35">
+      <c r="J51">
+        <v>2026</v>
+      </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="J32">
-        <v>2018</v>
-      </c>
-      <c r="K32" s="11">
-        <f>K11/J11</f>
-        <v>31.007126791993624</v>
-      </c>
-      <c r="L32" s="12">
-        <f t="shared" si="5"/>
-        <v>27.450275483182391</v>
-      </c>
-      <c r="M32" s="12">
-        <f t="shared" si="5"/>
-        <v>27.704477953809146</v>
-      </c>
-      <c r="N32" s="12">
-        <f t="shared" si="5"/>
-        <v>29.921123575702879</v>
-      </c>
-      <c r="O32" s="12">
-        <f t="shared" si="5"/>
-        <v>27.963431881348665</v>
-      </c>
-      <c r="P32" s="12">
-        <f t="shared" ref="P32:V32" si="6">P11/$J11</f>
-        <v>10</v>
-      </c>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="12"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="12"/>
+    <row r="52" spans="10:25" x14ac:dyDescent="0.35">
+      <c r="J52">
+        <v>2027</v>
+      </c>
+      <c r="S52">
+        <v>8</v>
+      </c>
+      <c r="T52">
+        <v>8.5</v>
+      </c>
+      <c r="U52">
+        <v>14.5</v>
+      </c>
+      <c r="V52">
+        <v>17</v>
+      </c>
     </row>
-    <row r="33" spans="10:22" x14ac:dyDescent="0.35">
-      <c r="J33">
-        <v>2019</v>
-      </c>
-      <c r="K33" s="11">
-        <f>K12/J12</f>
-        <v>29.930244532156976</v>
-      </c>
-      <c r="L33" s="12">
-        <f t="shared" si="5"/>
-        <v>25.408409534909488</v>
-      </c>
-      <c r="M33" s="12">
-        <f t="shared" si="5"/>
-        <v>25.643693854890678</v>
-      </c>
-      <c r="N33" s="12">
-        <f t="shared" si="5"/>
-        <v>27.695373070813499</v>
-      </c>
-      <c r="O33" s="12">
-        <f t="shared" si="5"/>
-        <v>25.883376004904182</v>
-      </c>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="12"/>
-      <c r="V33" s="12"/>
+    <row r="53" spans="10:25" x14ac:dyDescent="0.35">
+      <c r="J53">
+        <v>2028</v>
+      </c>
     </row>
-    <row r="34" spans="10:22" x14ac:dyDescent="0.35">
-      <c r="J34">
-        <v>2020</v>
-      </c>
-      <c r="K34" s="11">
-        <f>K13/J13</f>
-        <v>24.6700128815643</v>
-      </c>
-      <c r="L34" s="12">
-        <f t="shared" si="5"/>
-        <v>21.169040480387398</v>
-      </c>
-      <c r="M34" s="12">
-        <f t="shared" si="5"/>
-        <v>21.36549131186645</v>
-      </c>
-      <c r="N34" s="12">
-        <f t="shared" si="5"/>
-        <v>23.07854254776953</v>
-      </c>
-      <c r="O34" s="12">
-        <f t="shared" si="5"/>
-        <v>21.565614119280159</v>
-      </c>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
-      <c r="U34" s="12"/>
-      <c r="V34" s="12"/>
+    <row r="54" spans="10:25" x14ac:dyDescent="0.35">
+      <c r="J54">
+        <v>2029</v>
+      </c>
     </row>
-    <row r="35" spans="10:22" x14ac:dyDescent="0.35">
-      <c r="J35">
-        <v>2021</v>
-      </c>
-      <c r="K35" s="11">
-        <f>K14/J14</f>
-        <v>24.845667891854681</v>
-      </c>
-      <c r="L35" s="12">
-        <f t="shared" si="5"/>
-        <v>18.882675216542065</v>
-      </c>
-      <c r="M35" s="12">
-        <f t="shared" si="5"/>
-        <v>19.057057176868113</v>
-      </c>
-      <c r="N35" s="12">
-        <f t="shared" si="5"/>
-        <v>20.577667915644788</v>
-      </c>
-      <c r="O35" s="12">
-        <f t="shared" si="5"/>
-        <v>19.234698621300204</v>
-      </c>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
-      <c r="T35" s="12"/>
-      <c r="U35" s="12"/>
-      <c r="V35" s="12"/>
+    <row r="55" spans="10:25" x14ac:dyDescent="0.35">
+      <c r="J55">
+        <v>2030</v>
+      </c>
+      <c r="S55">
+        <v>7</v>
+      </c>
+      <c r="T55">
+        <v>7.5</v>
+      </c>
+      <c r="U55">
+        <v>13</v>
+      </c>
+      <c r="V55">
+        <v>15</v>
+      </c>
     </row>
-    <row r="36" spans="10:22" x14ac:dyDescent="0.35">
-      <c r="J36">
-        <v>2022</v>
-      </c>
-      <c r="K36" s="11">
-        <f>K15/J15</f>
-        <v>22.01598510824919</v>
-      </c>
-      <c r="L36" s="12">
-        <f t="shared" si="5"/>
-        <v>34.635456080751936</v>
-      </c>
-      <c r="M36" s="12">
-        <f t="shared" si="5"/>
-        <v>27.234548489793639</v>
-      </c>
-      <c r="N36" s="12">
-        <f t="shared" si="5"/>
-        <v>18.740073506074239</v>
-      </c>
-      <c r="O36" s="12">
-        <f t="shared" si="5"/>
-        <v>16.523044705091095</v>
-      </c>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12">
-        <f t="shared" ref="P36:V36" si="7">Q15/$J15</f>
-        <v>14.4</v>
-      </c>
-      <c r="R36" s="12">
-        <f t="shared" si="7"/>
-        <v>15.699999999999998</v>
-      </c>
-      <c r="S36" s="12">
-        <f t="shared" si="7"/>
-        <v>11</v>
-      </c>
-      <c r="T36" s="12">
-        <f t="shared" si="7"/>
-        <v>11.5</v>
-      </c>
-      <c r="U36" s="12">
-        <f t="shared" si="7"/>
-        <v>20.999999999999996</v>
-      </c>
-      <c r="V36" s="12">
-        <f t="shared" si="7"/>
-        <v>26</v>
+    <row r="56" spans="10:25" x14ac:dyDescent="0.35">
+      <c r="J56">
+        <v>2031</v>
+      </c>
+      <c r="W56">
+        <v>8.5</v>
+      </c>
+      <c r="X56">
+        <v>13.8</v>
+      </c>
+      <c r="Y56">
+        <v>14.3</v>
       </c>
     </row>
-    <row r="37" spans="10:22" x14ac:dyDescent="0.35">
-      <c r="J37">
-        <v>2023</v>
-      </c>
-      <c r="K37" s="11">
-        <f>K16/J16</f>
-        <v>14.193296279239508</v>
-      </c>
-      <c r="L37" s="12">
-        <f t="shared" si="5"/>
-        <v>31.794790439234262</v>
-      </c>
-      <c r="M37" s="12">
-        <f t="shared" si="5"/>
-        <v>25.417911447602084</v>
-      </c>
-      <c r="N37" s="12">
-        <f t="shared" si="5"/>
-        <v>16.734496655693313</v>
-      </c>
-      <c r="O37" s="12">
-        <f t="shared" si="5"/>
-        <v>15.445749686938507</v>
-      </c>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="12"/>
-      <c r="V37" s="12"/>
+    <row r="57" spans="10:25" x14ac:dyDescent="0.35">
+      <c r="J57">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="58" spans="10:25" x14ac:dyDescent="0.35">
+      <c r="J58">
+        <v>2033</v>
+      </c>
+      <c r="S58">
+        <v>6</v>
+      </c>
+      <c r="T58">
+        <v>6.5</v>
+      </c>
+      <c r="U58">
+        <v>12</v>
+      </c>
+      <c r="V58">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
